--- a/codedoan4/data/input_case.xlsx
+++ b/codedoan4/data/input_case.xlsx
@@ -1292,14 +1292,15 @@
       <c r="H15" t="str">
         <v/>
       </c>
-      <c r="I15" t="str" xml:space="preserve">
-        <v xml:space="preserve">Tên là mục bắt buộc.
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Tên là mục bắt buộc.
 Họ là mục bắt buộc.
 Tên hiển thị là mục bắt buộc.
 Địa chỉ email là mục bắt buộc.</v>
-      </c>
-      <c r="J15" t="str">
-        <v>_x000d_</v>
       </c>
     </row>
     <row r="16">
